--- a/BalanceSheet/ALNY_bal.xlsx
+++ b/BalanceSheet/ALNY_bal.xlsx
@@ -507,16 +507,16 @@
         <v>91000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-8464000.0</v>
+        <v>75000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-2784000.0</v>
+        <v>67000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-12226000.0</v>
+        <v>77000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-11952000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>56348000.0</v>
@@ -5088,7 +5088,7 @@
         <v>-1037000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>-1232000000.0</v>
+        <v>-1232162000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>-1416437000.0</v>
